--- a/feature_desc.xlsx
+++ b/feature_desc.xlsx
@@ -446,12 +446,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Additional notes</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Description</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Additional notes</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -500,12 +500,12 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
+          <t>in cooperation with Kantar TNS; the information basis is a consumer survey</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>best-ager typology</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>in cooperation with Kantar TNS; the information basis is a consumer survey</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -552,12 +552,12 @@
           <t>Household</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>main age within the household</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
@@ -694,16 +694,16 @@
           <t>Building</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>number of households known in this building</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>number of households in the building</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>number of households known in this building</t>
+          <t>number of households in the building</t>
         </is>
       </c>
     </row>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>number of holders of an academic title in the building</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>number of academic title holder in building</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>number of holders of an academic title in the building</t>
+          <t>number of academic title holder in building</t>
         </is>
       </c>
     </row>
@@ -763,16 +763,16 @@
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>number of persons known in this household</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>number of adult persons in the household</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>number of persons known in this household</t>
+          <t>number of adult persons in the household</t>
         </is>
       </c>
     </row>
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>number of bearers of an academic title within this household</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">number of professional title holder in household </t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>number of bearers of an academic title within this household</t>
+          <t xml:space="preserve">number of professional title holder in household </t>
         </is>
       </c>
     </row>
@@ -836,12 +836,12 @@
           <t>Community</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>share of unemployed person in the community</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
@@ -863,16 +863,16 @@
           <t xml:space="preserve">Postcode </t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>distance to the next metropole</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">distance to next urban centre </t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>distance to the next metropole</t>
+          <t xml:space="preserve">distance to next urban centre </t>
         </is>
       </c>
     </row>
@@ -886,16 +886,16 @@
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>CAMEO_4.0: specific group</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>CAMEO classification 2015 - detailled classification</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CAMEO_4.0: specific group</t>
+          <t>CAMEO classification 2015 - detailled classification</t>
         </is>
       </c>
     </row>
@@ -915,18 +915,18 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CAMEO_4.0: uppergroup</t>
+          <t>New German CAMEO Typology established together with Call Credit in late 2015</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>New German CAMEO Typology established together with Call Credit in late 2015</t>
+          <t>CAMEO classification 2015 - Uppergroup</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CAMEO_4.0: uppergroup</t>
+          <t>CAMEO classification 2015 - Uppergroup</t>
         </is>
       </c>
     </row>
@@ -965,18 +965,18 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Customer-Journey-Typology relating to the preferred information and buying channels of consumers</t>
+          <t>relating to the preferred information, marketing and buying channels of consumers as well as their cross-channel usage. The information basis is a survey on the consumer channel preferences combined via a statistical modell with AZ DIAS data</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>relating to the preferred information, marketing and buying channels of consumers as well as their cross-channel usage. The information basis is a survey on the consumer channel preferences combined via a statistical modell with AZ DIAS data</t>
+          <t>customer journey typology</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Customer-Journey-Typology relating to the preferred information and buying channels of consumers</t>
+          <t>customer journey typology</t>
         </is>
       </c>
     </row>
@@ -1151,16 +1151,16 @@
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">transaction activity BANKS in the last 12 months </t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>transaction activity BANKS in the last 12 months</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">transaction activity BANKS in the last 12 months </t>
+          <t>transaction activity BANKS in the last 12 months</t>
         </is>
       </c>
     </row>
@@ -1174,16 +1174,16 @@
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">transaction activity BANKS in the last 24 months </t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>transaction activity BANKS in the last 24 months</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">transaction activity BANKS in the last 24 months </t>
+          <t>transaction activity BANKS in the last 24 months</t>
         </is>
       </c>
     </row>
@@ -1197,12 +1197,12 @@
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>actuality of the last transaction for the segment banks TOTAL</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
@@ -1289,12 +1289,12 @@
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>actuality of the last transaction for the segment banks OFFLINE</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
@@ -1312,12 +1312,12 @@
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>actuality of the last transaction for the segment banks ONLINE</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
@@ -1335,12 +1335,12 @@
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t xml:space="preserve">amount of online transactions within all transactions in the segment bank </t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
@@ -1611,16 +1611,16 @@
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">transaction activity TOTAL POOL in the last 12 months  </t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">transaction activity TOTAL POOL in the last 12 months </t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve">transaction activity TOTAL POOL in the last 12 months  </t>
+          <t xml:space="preserve">transaction activity TOTAL POOL in the last 12 months </t>
         </is>
       </c>
     </row>
@@ -1634,16 +1634,16 @@
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">transaction activity TOTAL POOL in the last 24 months  </t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">transaction activity TOTAL POOL in the last 24 months </t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve">transaction activity TOTAL POOL in the last 24 months  </t>
+          <t xml:space="preserve">transaction activity TOTAL POOL in the last 24 months </t>
         </is>
       </c>
     </row>
@@ -1657,12 +1657,12 @@
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
         <is>
           <t>actuality of the last transaction with the complete file TOTAL</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
@@ -1680,12 +1680,12 @@
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>actuality of the last transaction with the complete file OFFLINE</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
@@ -1703,12 +1703,12 @@
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>actuality of the last transaction with the complete file ONLINE</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
@@ -1726,12 +1726,12 @@
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t xml:space="preserve">amount of online transactions within all transactions in the complete file </t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
@@ -1818,12 +1818,12 @@
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t xml:space="preserve">consumption type </t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
@@ -2140,16 +2140,16 @@
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">transaction activity TELCO in the last 12 months </t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>transaction activity TELCO in the last 12 months</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t xml:space="preserve">transaction activity TELCO in the last 12 months </t>
+          <t>transaction activity TELCO in the last 12 months</t>
         </is>
       </c>
     </row>
@@ -2163,16 +2163,16 @@
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">transaction activity TELCO in the last 24 months </t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>transaction activity TELCO in the last 24 months</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t xml:space="preserve">transaction activity TELCO in the last 24 months </t>
+          <t>transaction activity TELCO in the last 24 months</t>
         </is>
       </c>
     </row>
@@ -2186,12 +2186,12 @@
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>actuality of the last transaction for the segment telecommunication TOTAL</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
@@ -2232,12 +2232,12 @@
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
         <is>
           <t>actuality of the last transaction for the segment telecommunication OFFLINE</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
@@ -2255,12 +2255,12 @@
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
         <is>
           <t>actuality of the last transaction for the segment telecommunication ONLINE</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
@@ -2347,16 +2347,16 @@
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">transaction activity MAIL-ORDER in the last 12 months </t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>transaction activity MAIL-ORDER in the last 12 months</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t xml:space="preserve">transaction activity MAIL-ORDER in the last 12 months </t>
+          <t>transaction activity MAIL-ORDER in the last 12 months</t>
         </is>
       </c>
     </row>
@@ -2370,16 +2370,16 @@
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">transaction activity MAIL-ORDER in the last 24 months </t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>transaction activity MAIL-ORDER in the last 24 months</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t xml:space="preserve">transaction activity MAIL-ORDER in the last 24 months </t>
+          <t>transaction activity MAIL-ORDER in the last 24 months</t>
         </is>
       </c>
     </row>
@@ -2393,12 +2393,12 @@
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>actuality of the last transaction for the segment mail-order TOTAL</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
@@ -2416,12 +2416,12 @@
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
         <is>
           <t>actuality of the last transaction for the segment mail-order OFFLINE</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
@@ -2439,12 +2439,12 @@
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
         <is>
           <t>actuality of the last transaction for the segment mail-order ONLINE</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
@@ -2462,12 +2462,12 @@
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
         <is>
           <t xml:space="preserve">amount of online transactions within all transactions in the segment mail-order </t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
@@ -2508,16 +2508,16 @@
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t xml:space="preserve">transaction activity INSURANCE in the last 12 months </t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>transaction activity INSURANCE in the last 12 months</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t xml:space="preserve">transaction activity INSURANCE in the last 12 months </t>
+          <t>transaction activity INSURANCE in the last 12 months</t>
         </is>
       </c>
     </row>
@@ -2531,16 +2531,16 @@
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">transaction activity INSURANCE in the last 24 months </t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>transaction activity INSURANCE in the last 24 months</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t xml:space="preserve">transaction activity INSURANCE in the last 24 months </t>
+          <t>transaction activity INSURANCE in the last 24 months</t>
         </is>
       </c>
     </row>
@@ -2554,12 +2554,12 @@
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
         <is>
           <t>actuality of the last transaction for the segment insurance TOTAL</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
@@ -2577,12 +2577,12 @@
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
         <is>
           <t>actuality of the last transaction for the segment insurance OFFLINE</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
@@ -2600,12 +2600,12 @@
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
         <is>
           <t>actuality of the last transaction for the segment insurance ONLINE</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
@@ -2784,12 +2784,12 @@
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
         <is>
           <t>density of inhabitants per square kilometer</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
@@ -2830,12 +2830,12 @@
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
         <is>
           <t>financial typology: investor</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
@@ -2853,12 +2853,12 @@
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
         <is>
           <t>financial typology: main focus is the own house</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
@@ -2878,12 +2878,12 @@
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
+          <t xml:space="preserve">Gfk-Typology based on a representative household panel combined via a statistical modell with AZ DIAS data </t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
           <t>financial typology: low financial interest</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gfk-Typology based on a representative household panel combined via a statistical modell with AZ DIAS data </t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
@@ -2903,12 +2903,12 @@
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
         <is>
           <t>financial typology: money saver</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
@@ -2926,12 +2926,12 @@
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
         <is>
           <t>financial typology: unremarkable</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
@@ -2949,12 +2949,12 @@
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
         <is>
           <t>financial typology: be prepared</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
@@ -2972,16 +2972,16 @@
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>best descirbing financial type for the peron</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>best descirbing financial type for the person</t>
+        </is>
+      </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>best descirbing financial type for the peron</t>
+          <t>best descirbing financial type for the person</t>
         </is>
       </c>
     </row>
@@ -3018,12 +3018,12 @@
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
         <is>
           <t>type of building (residential or commercial)</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
@@ -3045,12 +3045,12 @@
           <t>RR1_ID</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
         <is>
           <t>industrial areas</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
@@ -3068,12 +3068,12 @@
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr">
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
         <is>
           <t>year of birth</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
@@ -3114,12 +3114,12 @@
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr">
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
         <is>
           <t>vacation habits</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
@@ -3139,18 +3139,18 @@
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>the environmental sustainability is the dominating movement in the youth of these consumers</t>
+          <t xml:space="preserve">own typology based on modelled on different AZ DIAS data </t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t xml:space="preserve">own typology based on modelled on different AZ DIAS data </t>
+          <t>Green avantgarde</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>the environmental sustainability is the dominating movement in the youth of these consumers</t>
+          <t>Green avantgarde</t>
         </is>
       </c>
     </row>
@@ -3166,12 +3166,12 @@
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
+          <t>in cooperation with Kantar TNS; the information basis is a consumer survey</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
           <t>health typology</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>in cooperation with Kantar TNS; the information basis is a consumer survey</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
@@ -3216,18 +3216,18 @@
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t xml:space="preserve">estimated household_net_income </t>
+          <t>modelled on different AZ DIAS data</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>modelled on different AZ DIAS data</t>
+          <t xml:space="preserve">estimated household net income </t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
-          <t xml:space="preserve">estimated household_net_income </t>
+          <t xml:space="preserve">estimated household net income </t>
         </is>
       </c>
     </row>
@@ -3241,12 +3241,12 @@
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
         <is>
           <t>distance to the city centre</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
@@ -3264,12 +3264,12 @@
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr">
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
         <is>
           <t>share of car owners less than 31 years old</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
@@ -3287,12 +3287,12 @@
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr">
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
         <is>
           <t>share of car owners inbetween 31 and 45 years of age</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
@@ -3310,12 +3310,12 @@
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr">
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
         <is>
           <t>share of car owners inbetween 45 and 60 years of age</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
@@ -3333,12 +3333,12 @@
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
         <is>
           <t>share of cars owners elder than 61 years</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
@@ -3356,12 +3356,12 @@
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr">
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
         <is>
           <t>share of trailers in the microcell</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr">
         <is>
@@ -3379,12 +3379,12 @@
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr">
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
         <is>
           <t>number of 1-2 family houses in the cell</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
@@ -3402,12 +3402,12 @@
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr">
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
         <is>
           <t>number of 3-5 family houses in the cell</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
@@ -3425,12 +3425,12 @@
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr">
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
         <is>
           <t>number of 6-10 family houses in the cell</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
@@ -3448,12 +3448,12 @@
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr">
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
         <is>
           <t>number of &gt;10 family houses in the cell</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
@@ -3475,12 +3475,12 @@
           <t>Microcell (RR3_ID)</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
         <is>
           <t>share of cars per household</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
@@ -3498,12 +3498,12 @@
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr">
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
         <is>
           <t>most common building-type within the cell</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
@@ -3521,12 +3521,12 @@
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr">
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
         <is>
           <t>share of cars with less than 1399ccm</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
@@ -3544,12 +3544,12 @@
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr">
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
         <is>
           <t>share of cars with 1400ccm to 1799 ccm</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
@@ -3567,12 +3567,12 @@
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr">
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
         <is>
           <t>share of cars with 1800ccm to 2499 ccm</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
@@ -3590,12 +3590,12 @@
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr">
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
         <is>
           <t>share of cars with more than 2499ccm</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
@@ -3613,12 +3613,12 @@
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr">
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
         <is>
           <t>share of cars with Diesel-engine in the microcell</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
@@ -3636,12 +3636,12 @@
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr">
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
         <is>
           <t>share of female car owners</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
@@ -3659,12 +3659,12 @@
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr">
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
         <is>
           <t>number of buildings in the microcell</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
         <is>
@@ -3682,12 +3682,12 @@
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr">
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
         <is>
           <t xml:space="preserve">share of top German manufacturer (Mercedes, BMW) </t>
         </is>
       </c>
-      <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
@@ -3705,12 +3705,12 @@
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr">
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
         <is>
           <t>share of Volkswagen-Cars (including Audi)</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
@@ -3728,12 +3728,12 @@
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr">
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
         <is>
           <t>share of Ford/Opel</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
@@ -3751,12 +3751,12 @@
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr">
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
         <is>
           <t>share of European manufacturer (e.g. Fiat, Peugeot, Rover,...)</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
@@ -3774,12 +3774,12 @@
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr">
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
         <is>
           <t>share of asian manufacturer (e.g. Toyota, Kia,...)</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
@@ -3797,16 +3797,16 @@
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Development of the most common car manufacturers in the neighbourhood</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>development of the most common car manufacturers in the neighbourhood</t>
+        </is>
+      </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Development of the most common car manufacturers in the neighbourhood</t>
+          <t>development of the most common car manufacturers in the neighbourhood</t>
         </is>
       </c>
     </row>
@@ -3820,12 +3820,12 @@
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr">
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
         <is>
           <t>share of cars per household (reffered to county average)</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr">
         <is>
@@ -3843,12 +3843,12 @@
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr">
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
         <is>
           <t>share of Mercedes/BMW (reffered to the county average)</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr">
         <is>
@@ -3866,12 +3866,12 @@
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr">
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
         <is>
           <t>share of Volkswagen (reffered to the county average)</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr">
         <is>
@@ -3889,12 +3889,12 @@
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr">
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
         <is>
           <t>share of Ford/Opel (reffered to the county average)</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr">
         <is>
@@ -3912,12 +3912,12 @@
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr">
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
         <is>
           <t>share of small cars (referred to the county average)</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
@@ -3935,12 +3935,12 @@
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr">
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
         <is>
           <t>share of upper class cars (referred to the county average)</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
@@ -3958,12 +3958,12 @@
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr">
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
         <is>
           <t>share of vans (referred to the county average)</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
@@ -3981,12 +3981,12 @@
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr">
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
         <is>
           <t>share of newbuilt cars (referred to the county average)</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr">
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
         <is>
           <t>share of cars with less than 59 KW engine power</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
@@ -4027,12 +4027,12 @@
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr">
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
         <is>
           <t>share of cars with an engine power between 60 and 119 KW</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr">
         <is>
@@ -4050,12 +4050,12 @@
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr">
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
         <is>
           <t>share of cars with an engine power of more than 119 KW</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr">
         <is>
@@ -4073,12 +4073,12 @@
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr">
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
         <is>
           <t>most common age of car owners in the microcell</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr">
         <is>
@@ -4096,12 +4096,12 @@
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr">
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
         <is>
           <t>most common age of the cars in the microcell</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr">
         <is>
@@ -4119,12 +4119,12 @@
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr">
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
         <is>
           <t>most common car manufacturer in the microcell</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr">
         <is>
@@ -4142,12 +4142,12 @@
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr">
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
         <is>
           <t>most common car segment in the microcell</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr">
         <is>
@@ -4165,12 +4165,12 @@
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr">
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
         <is>
           <t>most common preowner structure in the microcell</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr">
         <is>
@@ -4188,12 +4188,12 @@
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr">
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
         <is>
           <t>share of upper class cars (in an AZ specific definition)</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr">
         <is>
@@ -4211,12 +4211,12 @@
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr">
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
         <is>
           <t>share of middle class cars (in an AZ specific definition)</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr">
         <is>
@@ -4234,12 +4234,12 @@
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr">
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
         <is>
           <t>share of Golf-class cars (in an AZ specific definition)</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr">
         <is>
@@ -4257,12 +4257,12 @@
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr">
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
         <is>
           <t>share of small cars (in an AZ specific definition)</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr">
         <is>
@@ -4280,12 +4280,12 @@
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr">
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
         <is>
           <t>share of vans (in an AZ specific definition)</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr">
         <is>
@@ -4303,16 +4303,16 @@
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Development of the most common car segment in the neighbourhood</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>development of the most common car segment in the neighbourhood</t>
+        </is>
+      </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Development of the most common car segment in the neighbourhood</t>
+          <t>development of the most common car segment in the neighbourhood</t>
         </is>
       </c>
     </row>
@@ -4326,12 +4326,12 @@
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr">
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
         <is>
           <t>most common engine size in the microcell</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr">
         <is>
@@ -4349,12 +4349,12 @@
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr">
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
         <is>
           <t>share of motorcycles per household</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr">
         <is>
@@ -4372,12 +4372,12 @@
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr">
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
         <is>
           <t>share of very small cars (Ford Ka etc.) in the microcell</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr">
         <is>
@@ -4395,12 +4395,12 @@
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr">
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
         <is>
           <t>share of more specific cars (Vans, convertables, all-terrains, MUVs etc.)</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr">
         <is>
@@ -4418,12 +4418,12 @@
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr">
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
         <is>
           <t>share of small and very small cars (Ford Fiesta, Ford Ka etc.) in the microcell</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr">
         <is>
@@ -4441,12 +4441,12 @@
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr">
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
         <is>
           <t>share of lowe midclass cars (Ford Focus etc.) in the microcell</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr">
         <is>
@@ -4464,12 +4464,12 @@
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr">
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
         <is>
           <t>share of middle class cars (Ford Mondeo etc.) in the microcell</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr">
         <is>
@@ -4487,12 +4487,12 @@
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr">
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
         <is>
           <t>share of upper middle class cars and upper class cars (BMW5er, BMW7er etc.)</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr">
         <is>
@@ -4510,12 +4510,12 @@
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr">
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
         <is>
           <t>share of upper class cars (BMW 7er etc.) in the microcell</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr">
         <is>
@@ -4533,12 +4533,12 @@
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr">
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
         <is>
           <t>share of all-terrain vehicles and MUVs in the microcell</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr">
         <is>
@@ -4556,12 +4556,12 @@
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr">
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
         <is>
           <t>share of roadster and convertables in the microcell</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr">
         <is>
@@ -4579,12 +4579,12 @@
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr">
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
         <is>
           <t>share of vans in the microcell</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr">
         <is>
@@ -4602,12 +4602,12 @@
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr">
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr">
         <is>
           <t>share of cars with no preowner</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr">
         <is>
@@ -4625,12 +4625,12 @@
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr">
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr">
         <is>
           <t>share of cars with one or two preowner</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr">
         <is>
@@ -4648,12 +4648,12 @@
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr">
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr">
         <is>
           <t>share of cars with more than two preowner</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr">
         <is>
@@ -4671,12 +4671,12 @@
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr">
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr">
         <is>
           <t>share of cars built before 1994</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr">
         <is>
@@ -4694,12 +4694,12 @@
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr">
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr">
         <is>
           <t>share of cars built between 1994 and 2000</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr">
         <is>
@@ -4717,12 +4717,12 @@
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr">
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
         <is>
           <t>share of cars built between 2001 and 2002</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr">
         <is>
@@ -4740,12 +4740,12 @@
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr">
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr">
         <is>
           <t>share of cars built from 2003 on</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr">
         <is>
@@ -4767,12 +4767,12 @@
           <t>PLZ8</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr">
         <is>
           <t>share of car owners below 31 within the PLZ8</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr">
         <is>
@@ -4790,12 +4790,12 @@
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr">
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
         <is>
           <t>share of car owners between 31 and 45 within the PLZ8</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr">
         <is>
@@ -4813,12 +4813,12 @@
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr">
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
         <is>
           <t>share of car owners between 46 and 60 within the PLZ8</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr">
         <is>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>share of car owners elder than 60 within the PLZ8</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>share of car owners elder than 61 within the PLZ8</t>
+        </is>
+      </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr">
         <is>
-          <t>share of car owners elder than 60 within the PLZ8</t>
+          <t>share of car owners elder than 61 within the PLZ8</t>
         </is>
       </c>
     </row>
@@ -4951,12 +4951,12 @@
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr">
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
         <is>
           <t>number of cars in the PLZ8</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr">
         <is>
@@ -4974,12 +4974,12 @@
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr">
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
         <is>
           <t>share of AUDI within the PLZ8</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr">
         <is>
@@ -4997,12 +4997,12 @@
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr">
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
         <is>
           <t>share of cars per household within the PLZ8</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr">
         <is>
@@ -5043,12 +5043,12 @@
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
-      <c r="D198" t="inlineStr">
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr">
         <is>
           <t>share of cars built between 1995 and 1999 within the PLZ8</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr">
         <is>
@@ -5066,12 +5066,12 @@
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr">
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr">
         <is>
           <t>share of cars built between 2000 and 2003 within the PLZ8</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr">
         <is>
@@ -5089,12 +5089,12 @@
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
-      <c r="D200" t="inlineStr">
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr">
         <is>
           <t>share of cars built before 2004 within the PLZ8</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr">
         <is>
@@ -5112,12 +5112,12 @@
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr">
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr">
         <is>
           <t>share of cars built between 2005 and 2006 within the PLZ8</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr">
         <is>
@@ -5135,12 +5135,12 @@
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
-      <c r="D202" t="inlineStr">
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr">
         <is>
           <t>share of cars built in 2008 within the PLZ8</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr">
         <is>
@@ -5158,12 +5158,12 @@
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr">
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr">
         <is>
           <t>share of cars built in 2009 within the PLZ8</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr">
         <is>
@@ -5181,12 +5181,12 @@
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr">
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr">
         <is>
           <t>share of BMW within the PLZ8</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr">
         <is>
@@ -5204,16 +5204,16 @@
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>share of cars with less than 1401ccm within the PLZ8</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>share of cars with less than 1400ccm within the PLZ8</t>
+        </is>
+      </c>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr">
         <is>
-          <t>share of cars with less than 1401ccm within the PLZ8</t>
+          <t>share of cars with less than 1400ccm within the PLZ8</t>
         </is>
       </c>
     </row>
@@ -5227,12 +5227,12 @@
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
-      <c r="D206" t="inlineStr">
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
         <is>
           <t>share of cars with less than 1000ccm within the PLZ8</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr">
         <is>
@@ -5250,16 +5250,16 @@
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>share of cars with less than 1000ccm within the PLZ8</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>share of cars with 1000ccm to 1199ccm within the PLZ8</t>
+        </is>
+      </c>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr">
         <is>
-          <t>share of cars with less than 1000ccm within the PLZ8</t>
+          <t>share of cars with 1000ccm to 1199ccm within the PLZ8</t>
         </is>
       </c>
     </row>
@@ -5273,12 +5273,12 @@
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
-      <c r="D208" t="inlineStr">
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr">
         <is>
           <t>share of cars with 1200ccm to 1399ccm within the PLZ8</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr">
         <is>
@@ -5319,12 +5319,12 @@
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr">
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr">
         <is>
           <t>share of cars with 1400ccm to 1499ccm within the PLZ8</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr">
         <is>
@@ -5342,12 +5342,12 @@
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr">
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
         <is>
           <t>share of cars with 1500ccm to 1599ccm within the PLZ8</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr">
         <is>
@@ -5365,12 +5365,12 @@
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr">
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
         <is>
           <t>share of cars with 1600ccm to 1799ccm within the PLZ8</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr">
         <is>
@@ -5388,12 +5388,12 @@
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr">
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr">
         <is>
           <t>share of cars with 1800ccm to 1999ccm within the PLZ8</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr">
         <is>
@@ -5411,12 +5411,12 @@
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr">
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr">
         <is>
           <t>share of cars with 2000ccm to 2499ccm within the PLZ8</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr">
         <is>
@@ -5434,16 +5434,16 @@
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>share of cars with more than 2501ccm within the PLZ8</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>share of cars with more than 2500ccm within the PLZ8</t>
+        </is>
+      </c>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr">
         <is>
-          <t>share of cars with more than 2501ccm within the PLZ8</t>
+          <t>share of cars with more than 2500ccm within the PLZ8</t>
         </is>
       </c>
     </row>
@@ -5457,16 +5457,16 @@
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t xml:space="preserve">share of cars with 2500ccm to 2999ccm within the PLZ8 </t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>share of cars with 2500ccm to 2999ccm within the PLZ8</t>
+        </is>
+      </c>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr">
         <is>
-          <t xml:space="preserve">share of cars with 2500ccm to 2999ccm within the PLZ8 </t>
+          <t>share of cars with 2500ccm to 2999ccm within the PLZ8</t>
         </is>
       </c>
     </row>
@@ -5480,16 +5480,16 @@
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t xml:space="preserve">share of cars with more than 3000ccm within the PLZ8 </t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>share of cars with more than 3000ccm within the PLZ8</t>
+        </is>
+      </c>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr">
         <is>
-          <t xml:space="preserve">share of cars with more than 3000ccm within the PLZ8 </t>
+          <t>share of cars with more than 3000ccm within the PLZ8</t>
         </is>
       </c>
     </row>
@@ -5503,12 +5503,12 @@
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr">
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr">
         <is>
           <t>share of other Asian Manufacturers within the PLZ8</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr">
         <is>
@@ -5526,12 +5526,12 @@
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr">
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr">
         <is>
           <t>share of other Manufacturers within the PLZ8</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr">
         <is>
@@ -5549,12 +5549,12 @@
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr">
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr">
         <is>
           <t>share of FIAT within the PLZ8</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr">
         <is>
@@ -5572,12 +5572,12 @@
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr">
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr">
         <is>
           <t>share of FORD within the PLZ8</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr">
         <is>
@@ -5618,12 +5618,12 @@
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr">
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr">
         <is>
           <t>share of car owners below 21 within the PLZ8</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr">
         <is>
@@ -5641,12 +5641,12 @@
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr">
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr">
         <is>
           <t>share of car owners between 21 and 25 within the PLZ8</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr">
         <is>
@@ -5664,12 +5664,12 @@
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
-      <c r="D225" t="inlineStr">
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr">
         <is>
           <t>share of car owners between 26 and 30 within the PLZ8</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr">
         <is>
@@ -5687,12 +5687,12 @@
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr">
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr">
         <is>
           <t>share of car owners between 31 and 35 within the PLZ8</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr">
         <is>
@@ -5710,12 +5710,12 @@
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr">
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr">
         <is>
           <t>share of car owners between 36 and 40 within the PLZ8</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr">
         <is>
@@ -5733,12 +5733,12 @@
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr">
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr">
         <is>
           <t>share of car owners between 41 and 45 within the PLZ8</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr">
         <is>
@@ -5756,12 +5756,12 @@
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr">
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr">
         <is>
           <t>share of car owners between 46 and 50 within the PLZ8</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr">
         <is>
@@ -5779,12 +5779,12 @@
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr">
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr">
         <is>
           <t>share of car owners between 51 and 55 within the PLZ8</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr">
         <is>
@@ -5802,12 +5802,12 @@
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr">
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr">
         <is>
           <t>share of car owners between 56 and 60 within the PLZ8</t>
         </is>
       </c>
-      <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr">
         <is>
@@ -5825,12 +5825,12 @@
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
-      <c r="D232" t="inlineStr">
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr">
         <is>
           <t>share of car owners between 61 and 65 within the PLZ8</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr">
         <is>
@@ -5848,12 +5848,12 @@
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
-      <c r="D233" t="inlineStr">
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr">
         <is>
           <t>share of car owners over 66 within the PLZ8</t>
         </is>
       </c>
-      <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr">
         <is>
@@ -5871,16 +5871,16 @@
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>share of asian cars within the PLZ8</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>share of Asian Manufacturers within the PLZ8</t>
+        </is>
+      </c>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr">
         <is>
-          <t>share of asian cars within the PLZ8</t>
+          <t>share of Asian Manufacturers within the PLZ8</t>
         </is>
       </c>
     </row>
@@ -5894,12 +5894,12 @@
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr">
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr">
         <is>
           <t>share of Volkswagen &amp; Audi within the PLZ8</t>
         </is>
       </c>
-      <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr">
         <is>
@@ -5917,12 +5917,12 @@
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
-      <c r="D236" t="inlineStr">
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr">
         <is>
           <t>share of BMW &amp; Mercedes Benz within the PLZ8</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr">
         <is>
@@ -5940,12 +5940,12 @@
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
-      <c r="D237" t="inlineStr">
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
         <is>
           <t>share of European cars within the PLZ8</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr">
         <is>
@@ -5963,12 +5963,12 @@
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
-      <c r="D238" t="inlineStr">
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr">
         <is>
           <t>share of Ford &amp; Opel/Vauxhall within the PLZ8</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr">
         <is>
@@ -5986,12 +5986,12 @@
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
-      <c r="D239" t="inlineStr">
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr">
         <is>
           <t>share of other cars within the PLZ8</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr">
         <is>
@@ -6032,12 +6032,12 @@
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
-      <c r="D241" t="inlineStr">
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr">
         <is>
           <t>share of cars with max speed 140 km/h within the PLZ8</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr">
         <is>
@@ -6055,12 +6055,12 @@
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
-      <c r="D242" t="inlineStr">
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr">
         <is>
           <t>share of cars with max speed 110 km/h within the PLZ8</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr">
         <is>
@@ -6078,12 +6078,12 @@
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
-      <c r="D243" t="inlineStr">
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr">
         <is>
           <t>share of cars with max speed between 110 km/h and 140km/h within the PLZ8</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr">
         <is>
@@ -6101,12 +6101,12 @@
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
-      <c r="D244" t="inlineStr">
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr">
         <is>
           <t>share of cars with max speed between 140 and 210 km/h within the PLZ8</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr">
         <is>
@@ -6124,12 +6124,12 @@
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
-      <c r="D245" t="inlineStr">
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr">
         <is>
           <t>share of cars with max speed between 110 km/h and 180km/h within the PLZ8</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr">
         <is>
@@ -6170,12 +6170,12 @@
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
-      <c r="D247" t="inlineStr">
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr">
         <is>
           <t>share of cars with a greater max speed than 210 km/h within the PLZ8</t>
         </is>
       </c>
-      <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr">
         <is>
@@ -6193,12 +6193,12 @@
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
-      <c r="D248" t="inlineStr">
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr">
         <is>
           <t>share of cars with max speed between 210 and 250 km/h within the PLZ8</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="inlineStr">
         <is>
@@ -6216,12 +6216,12 @@
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
-      <c r="D249" t="inlineStr">
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr">
         <is>
           <t>share of cars with a greater max speed than 250 km/h within the PLZ8</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr">
         <is>
@@ -6239,12 +6239,12 @@
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
-      <c r="D250" t="inlineStr">
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr">
         <is>
           <t>share of cars per household (referred to the county average) - PLZ8</t>
         </is>
       </c>
-      <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr"/>
       <c r="G250" t="inlineStr">
         <is>
@@ -6262,12 +6262,12 @@
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
-      <c r="D251" t="inlineStr">
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr">
         <is>
           <t>share of Volkswagen (referred to the county average) - PLZ8</t>
         </is>
       </c>
-      <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="inlineStr">
         <is>
@@ -6285,12 +6285,12 @@
         </is>
       </c>
       <c r="C252" t="inlineStr"/>
-      <c r="D252" t="inlineStr">
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr">
         <is>
           <t>share of BMW/Mercedes Benz (referred to the county average) - PLZ8</t>
         </is>
       </c>
-      <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
-      <c r="D253" t="inlineStr">
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr">
         <is>
           <t>share of FORD/Opel (referred to the county average) - PLZ8</t>
         </is>
       </c>
-      <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="inlineStr">
         <is>
@@ -6331,12 +6331,12 @@
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
-      <c r="D254" t="inlineStr">
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr">
         <is>
           <t>share of small cars (referred to the county average) - PLZ8</t>
         </is>
       </c>
-      <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="inlineStr">
         <is>
@@ -6354,12 +6354,12 @@
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
-      <c r="D255" t="inlineStr">
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr">
         <is>
           <t>share of upper class cars (referred to the county average) - PLZ8</t>
         </is>
       </c>
-      <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr">
         <is>
@@ -6377,12 +6377,12 @@
         </is>
       </c>
       <c r="C256" t="inlineStr"/>
-      <c r="D256" t="inlineStr">
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr">
         <is>
           <t>share of vans (referred to the county average) - PLZ8</t>
         </is>
       </c>
-      <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="inlineStr">
         <is>
@@ -6400,12 +6400,12 @@
         </is>
       </c>
       <c r="C257" t="inlineStr"/>
-      <c r="D257" t="inlineStr">
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr">
         <is>
           <t>share of newbuilt cars (referred to the county average) - PLZ8</t>
         </is>
       </c>
-      <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="inlineStr">
         <is>
@@ -6423,16 +6423,16 @@
         </is>
       </c>
       <c r="C258" t="inlineStr"/>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>share of cars with less than 61 KW engine power - PLZ8</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr"/>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>share of cars up to 60 KW engine power - PLZ8</t>
+        </is>
+      </c>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="inlineStr">
         <is>
-          <t>share of cars with less than 61 KW engine power - PLZ8</t>
+          <t>share of cars up to 60 KW engine power - PLZ8</t>
         </is>
       </c>
     </row>
@@ -6446,12 +6446,12 @@
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
-      <c r="D259" t="inlineStr">
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr">
         <is>
           <t>share of cars with an engine power between 91 and 110 KW - PLZ8</t>
         </is>
       </c>
-      <c r="E259" t="inlineStr"/>
       <c r="F259" t="inlineStr"/>
       <c r="G259" t="inlineStr">
         <is>
@@ -6469,12 +6469,12 @@
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
-      <c r="D260" t="inlineStr">
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr">
         <is>
           <t>share of cars with an engine power between 111 and 120 KW - PLZ8</t>
         </is>
       </c>
-      <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="inlineStr">
         <is>
@@ -6492,16 +6492,16 @@
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>share of cars with an engine power of more than 121 KW - PLZ8</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr"/>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>share of cars with an engine power more than 120 KW - PLZ8</t>
+        </is>
+      </c>
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="inlineStr">
         <is>
-          <t>share of cars with an engine power of more than 121 KW - PLZ8</t>
+          <t>share of cars with an engine power more than 120 KW - PLZ8</t>
         </is>
       </c>
     </row>
@@ -6515,12 +6515,12 @@
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
-      <c r="D262" t="inlineStr">
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr">
         <is>
           <t>share of cars up to 30 KW engine power - PLZ8</t>
         </is>
       </c>
-      <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr">
         <is>
@@ -6538,12 +6538,12 @@
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
-      <c r="D263" t="inlineStr">
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr">
         <is>
           <t>share of cars with an engine power between 31 and 40 KW - PLZ8</t>
         </is>
       </c>
-      <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr">
         <is>
@@ -6561,12 +6561,12 @@
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
-      <c r="D264" t="inlineStr">
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr">
         <is>
           <t>share of cars with an engine power between 41 and 50 KW - PLZ8</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr">
         <is>
@@ -6584,12 +6584,12 @@
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
-      <c r="D265" t="inlineStr">
+      <c r="D265" t="inlineStr"/>
+      <c r="E265" t="inlineStr">
         <is>
           <t>share of cars with an engine power between 51 and 60 KW - PLZ8</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr">
         <is>
@@ -6607,12 +6607,12 @@
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
-      <c r="D266" t="inlineStr">
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr">
         <is>
           <t>share of cars with an engine power between 61 and 120 KW - PLZ8</t>
         </is>
       </c>
-      <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="inlineStr">
         <is>
@@ -6630,12 +6630,12 @@
         </is>
       </c>
       <c r="C267" t="inlineStr"/>
-      <c r="D267" t="inlineStr">
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr">
         <is>
           <t>share of cars with an engine power between 61 and 70 KW - PLZ8</t>
         </is>
       </c>
-      <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr">
         <is>
@@ -6653,12 +6653,12 @@
         </is>
       </c>
       <c r="C268" t="inlineStr"/>
-      <c r="D268" t="inlineStr">
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr">
         <is>
           <t>share of cars with an engine power between 71 and 80 KW - PLZ8</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="inlineStr">
         <is>
@@ -6676,12 +6676,12 @@
         </is>
       </c>
       <c r="C269" t="inlineStr"/>
-      <c r="D269" t="inlineStr">
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr">
         <is>
           <t>share of cars with an engine power between 81 and 90 KW - PLZ8</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="inlineStr">
         <is>
@@ -6699,12 +6699,12 @@
         </is>
       </c>
       <c r="C270" t="inlineStr"/>
-      <c r="D270" t="inlineStr">
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr">
         <is>
           <t>share of MAZDA within the PLZ8</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="inlineStr">
         <is>
@@ -6722,12 +6722,12 @@
         </is>
       </c>
       <c r="C271" t="inlineStr"/>
-      <c r="D271" t="inlineStr">
+      <c r="D271" t="inlineStr"/>
+      <c r="E271" t="inlineStr">
         <is>
           <t>share of MERCEDES within the PLZ8</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="inlineStr">
         <is>
@@ -6745,12 +6745,12 @@
         </is>
       </c>
       <c r="C272" t="inlineStr"/>
-      <c r="D272" t="inlineStr">
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr">
         <is>
           <t>most common motor size within the PLZ8</t>
         </is>
       </c>
-      <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="inlineStr">
         <is>
@@ -6768,12 +6768,12 @@
         </is>
       </c>
       <c r="C273" t="inlineStr"/>
-      <c r="D273" t="inlineStr">
+      <c r="D273" t="inlineStr"/>
+      <c r="E273" t="inlineStr">
         <is>
           <t>share of NISSAN within the PLZ8</t>
         </is>
       </c>
-      <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="inlineStr">
         <is>
@@ -6791,12 +6791,12 @@
         </is>
       </c>
       <c r="C274" t="inlineStr"/>
-      <c r="D274" t="inlineStr">
+      <c r="D274" t="inlineStr"/>
+      <c r="E274" t="inlineStr">
         <is>
           <t>share of OPEL within the PLZ8</t>
         </is>
       </c>
-      <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="inlineStr">
         <is>
@@ -6814,12 +6814,12 @@
         </is>
       </c>
       <c r="C275" t="inlineStr"/>
-      <c r="D275" t="inlineStr">
+      <c r="D275" t="inlineStr"/>
+      <c r="E275" t="inlineStr">
         <is>
           <t>share of PEUGEOT within the PLZ8</t>
         </is>
       </c>
-      <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr">
         <is>
@@ -6837,12 +6837,12 @@
         </is>
       </c>
       <c r="C276" t="inlineStr"/>
-      <c r="D276" t="inlineStr">
+      <c r="D276" t="inlineStr"/>
+      <c r="E276" t="inlineStr">
         <is>
           <t>share of RENAULT within the PLZ8</t>
         </is>
       </c>
-      <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr"/>
       <c r="G276" t="inlineStr">
         <is>
@@ -6860,12 +6860,12 @@
         </is>
       </c>
       <c r="C277" t="inlineStr"/>
-      <c r="D277" t="inlineStr">
+      <c r="D277" t="inlineStr"/>
+      <c r="E277" t="inlineStr">
         <is>
           <t>share of allterrain within the PLZ8</t>
         </is>
       </c>
-      <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="inlineStr">
         <is>
@@ -6883,12 +6883,12 @@
         </is>
       </c>
       <c r="C278" t="inlineStr"/>
-      <c r="D278" t="inlineStr">
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="inlineStr">
         <is>
           <t>share of big sized vans within the PLZ8</t>
         </is>
       </c>
-      <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr">
         <is>
@@ -6906,12 +6906,12 @@
         </is>
       </c>
       <c r="C279" t="inlineStr"/>
-      <c r="D279" t="inlineStr">
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="inlineStr">
         <is>
           <t>share of very small cars (Ford Ka etc.) in the PLZ8</t>
         </is>
       </c>
-      <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="inlineStr">
         <is>
@@ -6929,12 +6929,12 @@
         </is>
       </c>
       <c r="C280" t="inlineStr"/>
-      <c r="D280" t="inlineStr">
+      <c r="D280" t="inlineStr"/>
+      <c r="E280" t="inlineStr">
         <is>
           <t>share of small and very small cars (Ford Fiesta, Ford Ka etc.) in the PLZ8</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr"/>
       <c r="F280" t="inlineStr"/>
       <c r="G280" t="inlineStr">
         <is>
@@ -6952,12 +6952,12 @@
         </is>
       </c>
       <c r="C281" t="inlineStr"/>
-      <c r="D281" t="inlineStr">
+      <c r="D281" t="inlineStr"/>
+      <c r="E281" t="inlineStr">
         <is>
           <t>share of lowe midclass cars (Ford Focus etc.) in the PLZ8</t>
         </is>
       </c>
-      <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr"/>
       <c r="G281" t="inlineStr">
         <is>
@@ -6975,12 +6975,12 @@
         </is>
       </c>
       <c r="C282" t="inlineStr"/>
-      <c r="D282" t="inlineStr">
+      <c r="D282" t="inlineStr"/>
+      <c r="E282" t="inlineStr">
         <is>
           <t>share of minivans within the PLZ8</t>
         </is>
       </c>
-      <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr"/>
       <c r="G282" t="inlineStr">
         <is>
@@ -6998,12 +6998,12 @@
         </is>
       </c>
       <c r="C283" t="inlineStr"/>
-      <c r="D283" t="inlineStr">
+      <c r="D283" t="inlineStr"/>
+      <c r="E283" t="inlineStr">
         <is>
           <t>share of minicars within the PLZ8</t>
         </is>
       </c>
-      <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr"/>
       <c r="G283" t="inlineStr">
         <is>
@@ -7021,12 +7021,12 @@
         </is>
       </c>
       <c r="C284" t="inlineStr"/>
-      <c r="D284" t="inlineStr">
+      <c r="D284" t="inlineStr"/>
+      <c r="E284" t="inlineStr">
         <is>
           <t>share of middle class cars (Ford Mondeo etc.) in the PLZ8</t>
         </is>
       </c>
-      <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr"/>
       <c r="G284" t="inlineStr">
         <is>
@@ -7044,12 +7044,12 @@
         </is>
       </c>
       <c r="C285" t="inlineStr"/>
-      <c r="D285" t="inlineStr">
+      <c r="D285" t="inlineStr"/>
+      <c r="E285" t="inlineStr">
         <is>
           <t>share of upper middle class cars and upper class cars (BMW5er, BMW7er etc.)</t>
         </is>
       </c>
-      <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="inlineStr">
         <is>
@@ -7067,12 +7067,12 @@
         </is>
       </c>
       <c r="C286" t="inlineStr"/>
-      <c r="D286" t="inlineStr">
+      <c r="D286" t="inlineStr"/>
+      <c r="E286" t="inlineStr">
         <is>
           <t>share of upper class cars (BMW 7er etc.) in the PLZ8</t>
         </is>
       </c>
-      <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="inlineStr">
         <is>
@@ -7090,12 +7090,12 @@
         </is>
       </c>
       <c r="C287" t="inlineStr"/>
-      <c r="D287" t="inlineStr">
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr">
         <is>
           <t>share of other cars within the PLZ8</t>
         </is>
       </c>
-      <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr"/>
       <c r="G287" t="inlineStr">
         <is>
@@ -7113,12 +7113,12 @@
         </is>
       </c>
       <c r="C288" t="inlineStr"/>
-      <c r="D288" t="inlineStr">
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="inlineStr">
         <is>
           <t>share of sportscars within the PLZ8</t>
         </is>
       </c>
-      <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr">
         <is>
@@ -7136,12 +7136,12 @@
         </is>
       </c>
       <c r="C289" t="inlineStr"/>
-      <c r="D289" t="inlineStr">
+      <c r="D289" t="inlineStr"/>
+      <c r="E289" t="inlineStr">
         <is>
           <t>share of MUVs/SUVs within the PLZ8</t>
         </is>
       </c>
-      <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr"/>
       <c r="G289" t="inlineStr">
         <is>
@@ -7159,12 +7159,12 @@
         </is>
       </c>
       <c r="C290" t="inlineStr"/>
-      <c r="D290" t="inlineStr">
+      <c r="D290" t="inlineStr"/>
+      <c r="E290" t="inlineStr">
         <is>
           <t>share of vans within the PLZ8</t>
         </is>
       </c>
-      <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr"/>
       <c r="G290" t="inlineStr">
         <is>
@@ -7182,12 +7182,12 @@
         </is>
       </c>
       <c r="C291" t="inlineStr"/>
-      <c r="D291" t="inlineStr">
+      <c r="D291" t="inlineStr"/>
+      <c r="E291" t="inlineStr">
         <is>
           <t>share of roadmobiles within the PLZ8</t>
         </is>
       </c>
-      <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr"/>
       <c r="G291" t="inlineStr">
         <is>
@@ -7205,12 +7205,12 @@
         </is>
       </c>
       <c r="C292" t="inlineStr"/>
-      <c r="D292" t="inlineStr">
+      <c r="D292" t="inlineStr"/>
+      <c r="E292" t="inlineStr">
         <is>
           <t>number of cars with less than 5 seats in the PLZ8</t>
         </is>
       </c>
-      <c r="E292" t="inlineStr"/>
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="inlineStr">
         <is>
@@ -7228,12 +7228,12 @@
         </is>
       </c>
       <c r="C293" t="inlineStr"/>
-      <c r="D293" t="inlineStr">
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr">
         <is>
           <t>number of cars with 5 seats in the PLZ8</t>
         </is>
       </c>
-      <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr">
         <is>
@@ -7251,12 +7251,12 @@
         </is>
       </c>
       <c r="C294" t="inlineStr"/>
-      <c r="D294" t="inlineStr">
+      <c r="D294" t="inlineStr"/>
+      <c r="E294" t="inlineStr">
         <is>
           <t>number of cars with more than 5 seats in the PLZ8</t>
         </is>
       </c>
-      <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr"/>
       <c r="G294" t="inlineStr">
         <is>
@@ -7274,12 +7274,12 @@
         </is>
       </c>
       <c r="C295" t="inlineStr"/>
-      <c r="D295" t="inlineStr">
+      <c r="D295" t="inlineStr"/>
+      <c r="E295" t="inlineStr">
         <is>
           <t>share of TOYOTA within the PLZ8</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="inlineStr">
         <is>
@@ -7297,12 +7297,12 @@
         </is>
       </c>
       <c r="C296" t="inlineStr"/>
-      <c r="D296" t="inlineStr">
+      <c r="D296" t="inlineStr"/>
+      <c r="E296" t="inlineStr">
         <is>
           <t>share of cars with no preowner - PLZ8</t>
         </is>
       </c>
-      <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr"/>
       <c r="G296" t="inlineStr">
         <is>
@@ -7320,12 +7320,12 @@
         </is>
       </c>
       <c r="C297" t="inlineStr"/>
-      <c r="D297" t="inlineStr">
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="inlineStr">
         <is>
           <t>share of cars with 1 preowner - PLZ8</t>
         </is>
       </c>
-      <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr"/>
       <c r="G297" t="inlineStr">
         <is>
@@ -7343,12 +7343,12 @@
         </is>
       </c>
       <c r="C298" t="inlineStr"/>
-      <c r="D298" t="inlineStr">
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr">
         <is>
           <t>share of cars with 1 or 2 preowner - PLZ8</t>
         </is>
       </c>
-      <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="inlineStr">
         <is>
@@ -7366,12 +7366,12 @@
         </is>
       </c>
       <c r="C299" t="inlineStr"/>
-      <c r="D299" t="inlineStr">
+      <c r="D299" t="inlineStr"/>
+      <c r="E299" t="inlineStr">
         <is>
           <t>share of cars with 2 preowner - PLZ8</t>
         </is>
       </c>
-      <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr"/>
       <c r="G299" t="inlineStr">
         <is>
@@ -7389,16 +7389,16 @@
         </is>
       </c>
       <c r="C300" t="inlineStr"/>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>share of cars with more than 2 preowner - PLZ8</t>
-        </is>
-      </c>
-      <c r="E300" t="inlineStr"/>
+      <c r="D300" t="inlineStr"/>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>share of cars with 3 or more preowner - PLZ8</t>
+        </is>
+      </c>
       <c r="F300" t="inlineStr"/>
       <c r="G300" t="inlineStr">
         <is>
-          <t>share of cars with more than 2 preowner - PLZ8</t>
+          <t>share of cars with 3 or more preowner - PLZ8</t>
         </is>
       </c>
     </row>
@@ -7412,12 +7412,12 @@
         </is>
       </c>
       <c r="C301" t="inlineStr"/>
-      <c r="D301" t="inlineStr">
+      <c r="D301" t="inlineStr"/>
+      <c r="E301" t="inlineStr">
         <is>
           <t>share of VOLKSWAGEN within the PLZ8</t>
         </is>
       </c>
-      <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr"/>
       <c r="G301" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       <c r="C303" t="inlineStr"/>
       <c r="D303" t="inlineStr">
         <is>
+          <t>modelled on different AZ DIAS data</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
           <t>purchasing power</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>modelled on different AZ DIAS data</t>
         </is>
       </c>
       <c r="F303" t="inlineStr"/>
@@ -7510,12 +7510,12 @@
       <c r="C305" t="inlineStr"/>
       <c r="D305" t="inlineStr">
         <is>
+          <t>additional costs</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
           <t>distance from a building to PoS (Point of Sale)</t>
-        </is>
-      </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>additional costs</t>
         </is>
       </c>
       <c r="F305" t="inlineStr"/>
@@ -7558,16 +7558,16 @@
         </is>
       </c>
       <c r="C307" t="inlineStr"/>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>family type fine</t>
-        </is>
-      </c>
-      <c r="E307" t="inlineStr"/>
+      <c r="D307" t="inlineStr"/>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>familytyp fine</t>
+        </is>
+      </c>
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="inlineStr">
         <is>
-          <t>family type fine</t>
+          <t>familytyp fine</t>
         </is>
       </c>
     </row>
@@ -7581,16 +7581,16 @@
         </is>
       </c>
       <c r="C308" t="inlineStr"/>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>family type rough</t>
-        </is>
-      </c>
-      <c r="E308" t="inlineStr"/>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>familytyp rough</t>
+        </is>
+      </c>
       <c r="F308" t="inlineStr"/>
       <c r="G308" t="inlineStr">
         <is>
-          <t>family type rough</t>
+          <t>familytyp rough</t>
         </is>
       </c>
     </row>
@@ -7606,18 +7606,18 @@
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr">
         <is>
-          <t>lifestage fine</t>
+          <t>modelled on different AZ DIAS data</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>modelled on different AZ DIAS data</t>
+          <t xml:space="preserve">lifestage fine </t>
         </is>
       </c>
       <c r="F309" t="inlineStr"/>
       <c r="G309" t="inlineStr">
         <is>
-          <t>lifestage fine</t>
+          <t xml:space="preserve">lifestage fine </t>
         </is>
       </c>
     </row>
@@ -7633,12 +7633,12 @@
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr">
         <is>
+          <t>modelled on different AZ DIAS data</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
           <t>lifestage rough</t>
-        </is>
-      </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>modelled on different AZ DIAS data</t>
         </is>
       </c>
       <c r="F310" t="inlineStr"/>
@@ -7658,16 +7658,16 @@
         </is>
       </c>
       <c r="C311" t="inlineStr"/>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t xml:space="preserve">social status fine </t>
-        </is>
-      </c>
-      <c r="E311" t="inlineStr"/>
+      <c r="D311" t="inlineStr"/>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>social status fine</t>
+        </is>
+      </c>
       <c r="F311" t="inlineStr"/>
       <c r="G311" t="inlineStr">
         <is>
-          <t xml:space="preserve">social status fine </t>
+          <t>social status fine</t>
         </is>
       </c>
     </row>
@@ -7681,12 +7681,12 @@
         </is>
       </c>
       <c r="C312" t="inlineStr"/>
-      <c r="D312" t="inlineStr">
+      <c r="D312" t="inlineStr"/>
+      <c r="E312" t="inlineStr">
         <is>
           <t>social status rough</t>
         </is>
       </c>
-      <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr"/>
       <c r="G312" t="inlineStr">
         <is>
@@ -7704,12 +7704,12 @@
         </is>
       </c>
       <c r="C313" t="inlineStr"/>
-      <c r="D313" t="inlineStr">
+      <c r="D313" t="inlineStr"/>
+      <c r="E313" t="inlineStr">
         <is>
           <t>year the building was first mentioned in our database</t>
         </is>
       </c>
-      <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr"/>
       <c r="G313" t="inlineStr">
         <is>
@@ -7750,12 +7750,12 @@
         </is>
       </c>
       <c r="C315" t="inlineStr"/>
-      <c r="D315" t="inlineStr">
+      <c r="D315" t="inlineStr"/>
+      <c r="E315" t="inlineStr">
         <is>
           <t>moving patterns</t>
         </is>
       </c>
-      <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr"/>
       <c r="G315" t="inlineStr">
         <is>
@@ -7775,18 +7775,18 @@
       <c r="C316" t="inlineStr"/>
       <c r="D316" t="inlineStr">
         <is>
-          <t>nationaltity</t>
+          <t>based on analysis of the first name</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>based on analysis of the first name</t>
+          <t>nationaltity (scored by prename analysis)</t>
         </is>
       </c>
       <c r="F316" t="inlineStr"/>
       <c r="G316" t="inlineStr">
         <is>
-          <t>nationaltity</t>
+          <t>nationaltity (scored by prename analysis)</t>
         </is>
       </c>
     </row>
@@ -7800,12 +7800,12 @@
         </is>
       </c>
       <c r="C317" t="inlineStr"/>
-      <c r="D317" t="inlineStr">
+      <c r="D317" t="inlineStr"/>
+      <c r="E317" t="inlineStr">
         <is>
           <t>online affinity</t>
         </is>
       </c>
-      <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
       <c r="G317" t="inlineStr">
         <is>
@@ -7823,16 +7823,16 @@
         </is>
       </c>
       <c r="C318" t="inlineStr"/>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>classified number of inhabitants</t>
-        </is>
-      </c>
-      <c r="E318" t="inlineStr"/>
+      <c r="D318" t="inlineStr"/>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>size of the community</t>
+        </is>
+      </c>
       <c r="F318" t="inlineStr"/>
       <c r="G318" t="inlineStr">
         <is>
-          <t>classified number of inhabitants</t>
+          <t>size of the community</t>
         </is>
       </c>
     </row>
@@ -7846,12 +7846,12 @@
         </is>
       </c>
       <c r="C319" t="inlineStr"/>
-      <c r="D319" t="inlineStr">
+      <c r="D319" t="inlineStr"/>
+      <c r="E319" t="inlineStr">
         <is>
           <t>flag indicating the former GDR/FRG</t>
         </is>
       </c>
-      <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr"/>
       <c r="G319" t="inlineStr">
         <is>
@@ -7869,12 +7869,12 @@
         </is>
       </c>
       <c r="C320" t="inlineStr"/>
-      <c r="D320" t="inlineStr">
+      <c r="D320" t="inlineStr"/>
+      <c r="E320" t="inlineStr">
         <is>
           <t>number of 1-2 family houses in the PLZ8</t>
         </is>
       </c>
-      <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr"/>
       <c r="G320" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
         </is>
       </c>
       <c r="C321" t="inlineStr"/>
-      <c r="D321" t="inlineStr">
+      <c r="D321" t="inlineStr"/>
+      <c r="E321" t="inlineStr">
         <is>
           <t>number of 3-5 family houses in the PLZ8</t>
         </is>
       </c>
-      <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
       <c r="G321" t="inlineStr">
         <is>
@@ -7915,12 +7915,12 @@
         </is>
       </c>
       <c r="C322" t="inlineStr"/>
-      <c r="D322" t="inlineStr">
+      <c r="D322" t="inlineStr"/>
+      <c r="E322" t="inlineStr">
         <is>
           <t>number of 6-10 family houses in the PLZ8</t>
         </is>
       </c>
-      <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr"/>
       <c r="G322" t="inlineStr">
         <is>
@@ -7938,12 +7938,12 @@
         </is>
       </c>
       <c r="C323" t="inlineStr"/>
-      <c r="D323" t="inlineStr">
+      <c r="D323" t="inlineStr"/>
+      <c r="E323" t="inlineStr">
         <is>
           <t>number of &gt;10 family houses in the PLZ8</t>
         </is>
       </c>
-      <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="inlineStr">
         <is>
@@ -7961,12 +7961,12 @@
         </is>
       </c>
       <c r="C324" t="inlineStr"/>
-      <c r="D324" t="inlineStr">
+      <c r="D324" t="inlineStr"/>
+      <c r="E324" t="inlineStr">
         <is>
           <t>most common building-type within the PLZ8</t>
         </is>
       </c>
-      <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr"/>
       <c r="G324" t="inlineStr">
         <is>
@@ -7984,12 +7984,12 @@
         </is>
       </c>
       <c r="C325" t="inlineStr"/>
-      <c r="D325" t="inlineStr">
+      <c r="D325" t="inlineStr"/>
+      <c r="E325" t="inlineStr">
         <is>
           <t>number of buildings within the PLZ8</t>
         </is>
       </c>
-      <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr"/>
       <c r="G325" t="inlineStr">
         <is>
@@ -8007,12 +8007,12 @@
         </is>
       </c>
       <c r="C326" t="inlineStr"/>
-      <c r="D326" t="inlineStr">
+      <c r="D326" t="inlineStr"/>
+      <c r="E326" t="inlineStr">
         <is>
           <t>number of households within the PLZ8</t>
         </is>
       </c>
-      <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr"/>
       <c r="G326" t="inlineStr">
         <is>
@@ -8032,12 +8032,12 @@
       <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr">
         <is>
+          <t xml:space="preserve">own typology modelled on different AZ DIAS data </t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
           <t>dominating movement in the person's youth (avantgarde or mainstream)</t>
-        </is>
-      </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t xml:space="preserve">own typology modelled on different AZ DIAS data </t>
         </is>
       </c>
       <c r="F327" t="inlineStr"/>
@@ -8057,16 +8057,16 @@
         </is>
       </c>
       <c r="C328" t="inlineStr"/>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>AZ neighbourhood typology</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr"/>
+      <c r="D328" t="inlineStr"/>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">neighbourhood </t>
+        </is>
+      </c>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="inlineStr">
         <is>
-          <t>AZ neighbourhood typology</t>
+          <t xml:space="preserve">neighbourhood </t>
         </is>
       </c>
     </row>
@@ -8080,12 +8080,12 @@
         </is>
       </c>
       <c r="C329" t="inlineStr"/>
-      <c r="D329" t="inlineStr">
+      <c r="D329" t="inlineStr"/>
+      <c r="E329" t="inlineStr">
         <is>
           <t>share of unemployed in relation to the county the community belongs to</t>
         </is>
       </c>
-      <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr"/>
       <c r="G329" t="inlineStr">
         <is>
@@ -8103,12 +8103,12 @@
         </is>
       </c>
       <c r="C330" t="inlineStr"/>
-      <c r="D330" t="inlineStr">
+      <c r="D330" t="inlineStr"/>
+      <c r="E330" t="inlineStr">
         <is>
           <t>return type</t>
         </is>
       </c>
-      <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="inlineStr">
         <is>
@@ -8195,12 +8195,12 @@
         </is>
       </c>
       <c r="C334" t="inlineStr"/>
-      <c r="D334" t="inlineStr">
+      <c r="D334" t="inlineStr"/>
+      <c r="E334" t="inlineStr">
         <is>
           <t>affinity indicating in what way the person is dominant minded</t>
         </is>
       </c>
-      <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="inlineStr">
         <is>
@@ -8218,12 +8218,12 @@
         </is>
       </c>
       <c r="C335" t="inlineStr"/>
-      <c r="D335" t="inlineStr">
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="inlineStr">
         <is>
           <t>affinity indicating in what way the person is eventful orientated</t>
         </is>
       </c>
-      <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr">
         <is>
@@ -8241,12 +8241,12 @@
         </is>
       </c>
       <c r="C336" t="inlineStr"/>
-      <c r="D336" t="inlineStr">
+      <c r="D336" t="inlineStr"/>
+      <c r="E336" t="inlineStr">
         <is>
           <t>affinity indicating in what way the person is familiar minded</t>
         </is>
       </c>
-      <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr">
         <is>
@@ -8264,12 +8264,12 @@
         </is>
       </c>
       <c r="C337" t="inlineStr"/>
-      <c r="D337" t="inlineStr">
+      <c r="D337" t="inlineStr"/>
+      <c r="E337" t="inlineStr">
         <is>
           <t>affinity indicating in what way the person is of a fightfull attitude</t>
         </is>
       </c>
-      <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr">
         <is>
@@ -8287,12 +8287,12 @@
         </is>
       </c>
       <c r="C338" t="inlineStr"/>
-      <c r="D338" t="inlineStr">
+      <c r="D338" t="inlineStr"/>
+      <c r="E338" t="inlineStr">
         <is>
           <t>affinity indicating in what way the person is critical minded</t>
         </is>
       </c>
-      <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr">
         <is>
@@ -8310,12 +8310,12 @@
         </is>
       </c>
       <c r="C339" t="inlineStr"/>
-      <c r="D339" t="inlineStr">
+      <c r="D339" t="inlineStr"/>
+      <c r="E339" t="inlineStr">
         <is>
           <t>affinity indicating in what way the person is cultural minded</t>
         </is>
       </c>
-      <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="inlineStr">
         <is>
@@ -8333,12 +8333,12 @@
         </is>
       </c>
       <c r="C340" t="inlineStr"/>
-      <c r="D340" t="inlineStr">
+      <c r="D340" t="inlineStr"/>
+      <c r="E340" t="inlineStr">
         <is>
           <t>affinity indicating in what way the person is sensual minded</t>
         </is>
       </c>
-      <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr">
         <is>
@@ -8356,12 +8356,12 @@
         </is>
       </c>
       <c r="C341" t="inlineStr"/>
-      <c r="D341" t="inlineStr">
+      <c r="D341" t="inlineStr"/>
+      <c r="E341" t="inlineStr">
         <is>
           <t>affinity indicating in what way the person is material minded</t>
         </is>
       </c>
-      <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr">
         <is>
@@ -8379,12 +8379,12 @@
         </is>
       </c>
       <c r="C342" t="inlineStr"/>
-      <c r="D342" t="inlineStr">
+      <c r="D342" t="inlineStr"/>
+      <c r="E342" t="inlineStr">
         <is>
           <t>affinity indicating in what way the person is dutyfull traditional minded</t>
         </is>
       </c>
-      <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr"/>
       <c r="G342" t="inlineStr">
         <is>
@@ -8402,12 +8402,12 @@
         </is>
       </c>
       <c r="C343" t="inlineStr"/>
-      <c r="D343" t="inlineStr">
+      <c r="D343" t="inlineStr"/>
+      <c r="E343" t="inlineStr">
         <is>
           <t>affinity indicating in what way the person is of a rational mind</t>
         </is>
       </c>
-      <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="inlineStr">
         <is>
@@ -8425,12 +8425,12 @@
         </is>
       </c>
       <c r="C344" t="inlineStr"/>
-      <c r="D344" t="inlineStr">
+      <c r="D344" t="inlineStr"/>
+      <c r="E344" t="inlineStr">
         <is>
           <t>affinity indicating in what way the person is religious</t>
         </is>
       </c>
-      <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="inlineStr">
         <is>
@@ -8450,12 +8450,12 @@
       <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr">
         <is>
+          <t>attributes in cooperation with Kantar TNS; the information basis is a consumer survey</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
           <t>affinity indicating in what way the person is social minded</t>
-        </is>
-      </c>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>attributes in cooperation with Kantar TNS; the information basis is a consumer survey</t>
         </is>
       </c>
       <c r="F345" t="inlineStr"/>
@@ -8475,12 +8475,12 @@
         </is>
       </c>
       <c r="C346" t="inlineStr"/>
-      <c r="D346" t="inlineStr">
+      <c r="D346" t="inlineStr"/>
+      <c r="E346" t="inlineStr">
         <is>
           <t>affinity indicating in what way the person is traditional minded</t>
         </is>
       </c>
-      <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="inlineStr">
         <is>
@@ -8498,12 +8498,12 @@
         </is>
       </c>
       <c r="C347" t="inlineStr"/>
-      <c r="D347" t="inlineStr">
+      <c r="D347" t="inlineStr"/>
+      <c r="E347" t="inlineStr">
         <is>
           <t>affinity indicating in what way the person is dreamily</t>
         </is>
       </c>
-      <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr">
         <is>
@@ -8521,12 +8521,12 @@
         </is>
       </c>
       <c r="C348" t="inlineStr"/>
-      <c r="D348" t="inlineStr">
+      <c r="D348" t="inlineStr"/>
+      <c r="E348" t="inlineStr">
         <is>
           <t>shopping typology</t>
         </is>
       </c>
-      <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr">
         <is>
@@ -8590,12 +8590,12 @@
         </is>
       </c>
       <c r="C351" t="inlineStr"/>
-      <c r="D351" t="inlineStr">
+      <c r="D351" t="inlineStr"/>
+      <c r="E351" t="inlineStr">
         <is>
           <t>flag whether this person holds an academic title</t>
         </is>
       </c>
-      <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr"/>
       <c r="G351" t="inlineStr">
         <is>
@@ -8707,12 +8707,12 @@
       <c r="C356" t="inlineStr"/>
       <c r="D356" t="inlineStr">
         <is>
+          <t>in cooperation with TNS Infratest</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
           <t xml:space="preserve">insurance typology </t>
-        </is>
-      </c>
-      <c r="E356" t="inlineStr">
-        <is>
-          <t>in cooperation with TNS Infratest</t>
         </is>
       </c>
       <c r="F356" t="inlineStr"/>
@@ -8847,16 +8847,16 @@
         </is>
       </c>
       <c r="C362" t="inlineStr"/>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>likelihood of a child present in this household (can be specified in child age groups)</t>
-        </is>
-      </c>
-      <c r="E362" t="inlineStr"/>
+      <c r="D362" t="inlineStr"/>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>likelihood of a child present in this household</t>
+        </is>
+      </c>
       <c r="F362" t="inlineStr"/>
       <c r="G362" t="inlineStr">
         <is>
-          <t>likelihood of a child present in this household (can be specified in child age groups)</t>
+          <t>likelihood of a child present in this household</t>
         </is>
       </c>
     </row>
@@ -8870,16 +8870,16 @@
         </is>
       </c>
       <c r="C363" t="inlineStr"/>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>length of residenca</t>
-        </is>
-      </c>
-      <c r="E363" t="inlineStr"/>
+      <c r="D363" t="inlineStr"/>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>length of residence</t>
+        </is>
+      </c>
       <c r="F363" t="inlineStr"/>
       <c r="G363" t="inlineStr">
         <is>
-          <t>length of residenca</t>
+          <t>length of residence</t>
         </is>
       </c>
     </row>
@@ -8893,16 +8893,16 @@
         </is>
       </c>
       <c r="C364" t="inlineStr"/>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>neighbourhood-area (very good -&gt; rather poor; rural nbh)</t>
-        </is>
-      </c>
-      <c r="E364" t="inlineStr"/>
+      <c r="D364" t="inlineStr"/>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t xml:space="preserve">residential-area </t>
+        </is>
+      </c>
       <c r="F364" t="inlineStr"/>
       <c r="G364" t="inlineStr">
         <is>
-          <t>neighbourhood-area (very good -&gt; rather poor; rural nbh)</t>
+          <t xml:space="preserve">residential-area </t>
         </is>
       </c>
     </row>
@@ -8918,12 +8918,12 @@
       <c r="C365" t="inlineStr"/>
       <c r="D365" t="inlineStr">
         <is>
+          <t>modelled on different AZ DIAS data</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
           <t>typification of energy consumers</t>
-        </is>
-      </c>
-      <c r="E365" t="inlineStr">
-        <is>
-          <t>modelled on different AZ DIAS data</t>
         </is>
       </c>
       <c r="F365" t="inlineStr"/>
@@ -9012,12 +9012,12 @@
         </is>
       </c>
       <c r="C369" t="inlineStr"/>
-      <c r="D369" t="inlineStr">
+      <c r="D369" t="inlineStr"/>
+      <c r="E369" t="inlineStr">
         <is>
           <t>gender</t>
         </is>
       </c>
-      <c r="E369" t="inlineStr"/>
       <c r="F369" t="inlineStr"/>
       <c r="G369" t="inlineStr">
         <is>
@@ -9041,18 +9041,18 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t xml:space="preserve">age through prename analysis </t>
+          <t xml:space="preserve">modelled on millions of first name-age-reference data  </t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t xml:space="preserve">modelled on millions of first name-age-reference data  </t>
+          <t xml:space="preserve">age classification through prename analysis </t>
         </is>
       </c>
       <c r="F370" t="inlineStr"/>
       <c r="G370" t="inlineStr">
         <is>
-          <t xml:space="preserve">age through prename analysis </t>
+          <t xml:space="preserve">age classification through prename analysis </t>
         </is>
       </c>
     </row>

--- a/feature_desc.xlsx
+++ b/feature_desc.xlsx
@@ -1105,12 +1105,20 @@
           <t>CAMEO_INTL_2015</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Microcell (RR4_ID)</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>CAMEO classification 2015 - international typology</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>CAMEO INTL 2015</t>
+          <t>CAMEO classification 2015 - international typology</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1240,11 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>CJT type 2</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1340,7 +1352,11 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>CJT type 6</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1461,12 +1477,24 @@
           <t>D19_BANKEN_DIREKT</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AZ has access to approx. 650 Million transaction data - this is the basis for the criteria family DHT4A aka. D19. This data contains unique data regarding the mail-order activity of consumers, differentiated </t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group DIRECT BANKS</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>D19 banks directly</t>
+          <t>transactional activity based on the product group DIRECT BANKS</t>
         </is>
       </c>
     </row>
@@ -1489,12 +1517,20 @@
           <t>D19_BANKEN_GROSS</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group BIG BANKS</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>D19 banks tall</t>
+          <t>transactional activity based on the product group BIG BANKS</t>
         </is>
       </c>
     </row>
@@ -1517,12 +1553,20 @@
           <t>D19_BANKEN_LOKAL</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group LOCAL BANKS</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>D19 banks locally</t>
+          <t>transactional activity based on the product group LOCAL BANKS</t>
         </is>
       </c>
     </row>
@@ -1653,12 +1697,20 @@
           <t>D19_BANKEN_REST</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group FURTHER BANKS</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>D19 banks rest</t>
+          <t>transactional activity based on the product group FURTHER BANKS</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1733,20 @@
           <t>D19_BEKLEIDUNG_GEH</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group LUXURY CLOTHING</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>D19 Clothing</t>
+          <t>transactional activity based on the product group LUXURY CLOTHING</t>
         </is>
       </c>
     </row>
@@ -1709,12 +1769,20 @@
           <t>D19_BEKLEIDUNG_REST</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group FURTHER CLOTHING</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>D19 clothing rest</t>
+          <t>transactional activity based on the product group FURTHER CLOTHING</t>
         </is>
       </c>
     </row>
@@ -1737,12 +1805,20 @@
           <t>D19_BILDUNG</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group EDUCATION</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>D19 education</t>
+          <t>transactional activity based on the product group EDUCATION</t>
         </is>
       </c>
     </row>
@@ -1765,12 +1841,20 @@
           <t>D19_BIO_OEKO</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group ECOLOGICALS</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>D19 Bio Oeko</t>
+          <t>transactional activity based on the product group ECOLOGICALS</t>
         </is>
       </c>
     </row>
@@ -1793,12 +1877,20 @@
           <t>D19_BUCH_CD</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group BOOKS and CDS</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>D19 Book CD</t>
+          <t>transactional activity based on the product group BOOKS and CDS</t>
         </is>
       </c>
     </row>
@@ -1821,12 +1913,20 @@
           <t>D19_DIGIT_SERV</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group DIGITAL SERVICES</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>D19 Digit Serv</t>
+          <t>transactional activity based on the product group DIGITAL SERVICES</t>
         </is>
       </c>
     </row>
@@ -1849,12 +1949,20 @@
           <t>D19_DROGERIEARTIKEL</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group DRUGSTORES</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>D19 drugstore articles</t>
+          <t>transactional activity based on the product group DRUGSTORES</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1985,20 @@
           <t>D19_ENERGIE</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group ENERGY</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>D19 Energy</t>
+          <t>transactional activity based on the product group ENERGY</t>
         </is>
       </c>
     </row>
@@ -1905,12 +2021,20 @@
           <t>D19_FREIZEIT</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group LEISURE PRODUCTS</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>D19 leisure</t>
+          <t>transactional activity based on the product group LEISURE PRODUCTS</t>
         </is>
       </c>
     </row>
@@ -1933,12 +2057,20 @@
           <t>D19_GARTEN</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group GARDENING PRODUCTS</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>D19 garden</t>
+          <t>transactional activity based on the product group GARDENING PRODUCTS</t>
         </is>
       </c>
     </row>
@@ -2169,12 +2301,20 @@
           <t>D19_HANDWERK</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">transactional activity based on the product group DO-IT-YOURSELF PRODUCTS </t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>D19 craft</t>
+          <t xml:space="preserve">transactional activity based on the product group DO-IT-YOURSELF PRODUCTS </t>
         </is>
       </c>
     </row>
@@ -2197,12 +2337,20 @@
           <t>D19_HAUS_DEKO</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group HOUSE DECORATION</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>D19 house decoration</t>
+          <t>transactional activity based on the product group HOUSE DECORATION</t>
         </is>
       </c>
     </row>
@@ -2225,12 +2373,20 @@
           <t>D19_KINDERARTIKEL</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">transactional activity based on the product group CHILDREN'S PRODUCTS </t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>D19 children's articles</t>
+          <t xml:space="preserve">transactional activity based on the product group CHILDREN'S PRODUCTS </t>
         </is>
       </c>
     </row>
@@ -2317,12 +2473,20 @@
           <t>D19_KOSMETIK</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">transactional activity based on the product group COSMETIC PRODUCTS </t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>D19 cosmetics</t>
+          <t xml:space="preserve">transactional activity based on the product group COSMETIC PRODUCTS </t>
         </is>
       </c>
     </row>
@@ -2345,12 +2509,20 @@
           <t>D19_LEBENSMITTEL</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">transactional activity based on the product group FOOD PRODUCTS </t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>D19 Food</t>
+          <t xml:space="preserve">transactional activity based on the product group FOOD PRODUCTS </t>
         </is>
       </c>
     </row>
@@ -2403,10 +2575,14 @@
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group LOTTO</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>D19 Lotto</t>
+          <t>transactional activity based on the product group LOTTO</t>
         </is>
       </c>
     </row>
@@ -2429,12 +2605,20 @@
           <t>D19_NAHRUNGSERGAENZUNG</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group DIETARY SUPPLEMENTS</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>D19 nutritional</t>
+          <t>transactional activity based on the product group DIETARY SUPPLEMENTS</t>
         </is>
       </c>
     </row>
@@ -2457,12 +2641,20 @@
           <t>D19_RATGEBER</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group GUIDEBOOKS</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>D19 guide</t>
+          <t>transactional activity based on the product group GUIDEBOOKS</t>
         </is>
       </c>
     </row>
@@ -2485,12 +2677,20 @@
           <t>D19_REISEN</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group TRAVEL RELATED PRODUCTS</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>D19 travel</t>
+          <t>transactional activity based on the product group TRAVEL RELATED PRODUCTS</t>
         </is>
       </c>
     </row>
@@ -2513,12 +2713,20 @@
           <t>D19_SAMMELARTIKEL</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group COLLECTABLE ITEMS</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>D19 collective items</t>
+          <t>transactional activity based on the product group COLLECTABLE ITEMS</t>
         </is>
       </c>
     </row>
@@ -2541,12 +2749,20 @@
           <t>D19_SCHUHE</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group SHOES</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>D19 shoes</t>
+          <t>transactional activity based on the product group SHOES</t>
         </is>
       </c>
     </row>
@@ -2569,12 +2785,20 @@
           <t>D19_SONSTIGE</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group ALL OTHER CATEGORIES</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>D19 others</t>
+          <t>transactional activity based on the product group ALL OTHER CATEGORIES</t>
         </is>
       </c>
     </row>
@@ -2625,12 +2849,20 @@
           <t>D19_TECHNIK</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group TECHNOLOGY</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>D19 technology</t>
+          <t>transactional activity based on the product group TECHNOLOGY</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2985,20 @@
           <t>D19_TELKO_MOBILE</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group MOBILE COMMUNICATION</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>D19 Telko Mobile</t>
+          <t>transactional activity based on the product group MOBILE COMMUNICATION</t>
         </is>
       </c>
     </row>
@@ -2881,12 +3121,20 @@
           <t>D19_TELKO_REST</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group FURTHER MOBILE COMMUNICATION PRODUCTS</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>D19 Telko Rest</t>
+          <t>transactional activity based on the product group FURTHER MOBILE COMMUNICATION PRODUCTS</t>
         </is>
       </c>
     </row>
@@ -2909,12 +3157,20 @@
           <t>D19_TIERARTIKEL</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group ANIMAL PRODUCTS</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>D19 animal items</t>
+          <t>transactional activity based on the product group ANIMAL PRODUCTS</t>
         </is>
       </c>
     </row>
@@ -3145,12 +3401,20 @@
           <t>D19_VERSAND_REST</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group FURTHER MAIL-ORDER ARTICLES</t>
+        </is>
+      </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>D19 Shipping rest</t>
+          <t>transactional activity based on the product group FURTHER MAIL-ORDER ARTICLES</t>
         </is>
       </c>
     </row>
@@ -3373,12 +3637,20 @@
           <t>D19_VERSICHERUNGEN</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group INSURANCES</t>
+        </is>
+      </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>D19 Insurance</t>
+          <t>transactional activity based on the product group INSURANCES</t>
         </is>
       </c>
     </row>
@@ -3401,12 +3673,20 @@
           <t>D19_VOLLSORTIMENT</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group COMPLETE MAIL-ORDER OFFERS</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>D19 full range</t>
+          <t>transactional activity based on the product group COMPLETE MAIL-ORDER OFFERS</t>
         </is>
       </c>
     </row>
@@ -3429,12 +3709,20 @@
           <t>D19_WEIN_FEINKOST</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>125m x 125m Grid</t>
+        </is>
+      </c>
       <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>transactional activity based on the product group WINE AND GOURMET FOOD</t>
+        </is>
+      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>D19 wine delicatessen</t>
+          <t>transactional activity based on the product group WINE AND GOURMET FOOD</t>
         </is>
       </c>
     </row>
@@ -7373,12 +7661,20 @@
           <t>KBA13_CCM_1401_2500</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr"/>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>PLZ8</t>
+        </is>
+      </c>
       <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>share of cars with 1400ccm to 2499ccm within the PLZ8</t>
+        </is>
+      </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>KBA13 CCM 1401 2500</t>
+          <t>share of cars with 1400ccm to 2499ccm within the PLZ8</t>
         </is>
       </c>
     </row>
